--- a/TOOL - Live Song Resume -- Template.xlsx
+++ b/TOOL - Live Song Resume -- Template.xlsx
@@ -211,11 +211,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="h:mm"/>
     <numFmt numFmtId="167" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -426,7 +427,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -454,7 +455,7 @@
   <dimension ref="B1:BQ16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.14453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1343,7 +1344,7 @@
       <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
       <c r="AF14" s="14" t="str">
-        <f aca="false">IF(COUNTIF(A4:AF13, "x") = 0, "0%", (SUM(IF(FREQUENCY(IF(AF4:AO13="x", COLUMN(AF4:AO13)-COLUMN(AF4)+1), COLUMN(AF4:AO13)-COLUMN(AF4)+1), 1))/10))</f>
+        <f aca="false">IF(COUNTIF(AF4:AO13, "x") = 0, "0%", (SUM(IF(FREQUENCY(IF(AF4:AO13="x", COLUMN(AF4:AO13)-COLUMN(AF4)+1), COLUMN(AF4:AO13)-COLUMN(AF4)+1), 1))/10))</f>
         <v>0%</v>
       </c>
       <c r="AG14" s="14"/>
